--- a/Documentación/Diagramas/Lista materiales.xlsx
+++ b/Documentación/Diagramas/Lista materiales.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MAURO\Documents\GitHub\selfieHouseSOA\Diagramas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MAURO\Documents\GitHub\selfieHouseSOA\Documentación\Diagramas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>CANTIDAD</t>
   </si>
@@ -65,9 +65,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>SENSOR DIGITAL</t>
-  </si>
-  <si>
     <t>ACTUADOR</t>
   </si>
   <si>
@@ -77,12 +74,6 @@
     <t>Buzzer parlante</t>
   </si>
   <si>
-    <t>Relay 4 cuerpos</t>
-  </si>
-  <si>
-    <t>Tecla de timbre</t>
-  </si>
-  <si>
     <t>Celular con camara</t>
   </si>
   <si>
@@ -98,9 +89,6 @@
     <t>Traba con pestillo</t>
   </si>
   <si>
-    <t>NECESARIO PARA HACER FUNCIONAR EL TIMBRE , EL SERVO Y EVENTUALMENTE EL VENTILADOR DE TECHO</t>
-  </si>
-  <si>
     <t>Fuente de celular</t>
   </si>
   <si>
@@ -137,9 +125,6 @@
     <t>Pack Resistencias</t>
   </si>
   <si>
-    <t>Led multicolor</t>
-  </si>
-  <si>
     <t>Acceso en verde, bloqueo en rojo</t>
   </si>
   <si>
@@ -147,6 +132,24 @@
   </si>
   <si>
     <t>NODEMCU ESP8266</t>
+  </si>
+  <si>
+    <t>Transistor</t>
+  </si>
+  <si>
+    <t>Light sensor</t>
+  </si>
+  <si>
+    <t>Sensor Llama</t>
+  </si>
+  <si>
+    <t>KY-036</t>
+  </si>
+  <si>
+    <t>Celular</t>
+  </si>
+  <si>
+    <t>LEDs de color</t>
   </si>
 </sst>
 </file>
@@ -514,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F18"/>
+  <dimension ref="A2:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,7 +542,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E2" s="7"/>
     </row>
@@ -548,7 +551,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -565,13 +568,13 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D4" s="8">
         <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -588,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -605,7 +608,7 @@
         <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -622,7 +625,7 @@
         <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -630,13 +633,13 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -647,13 +650,13 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -661,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -678,16 +681,16 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D11" s="8">
         <v>155</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -695,16 +698,16 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="8">
         <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -712,13 +715,16 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>40</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -726,16 +732,13 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="8">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -743,13 +746,13 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
         <v>21</v>
       </c>
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -757,13 +760,13 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -771,27 +774,26 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D17" s="8">
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>1</v>
-      </c>
       <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>36</v>
-      </c>
-      <c r="D18" s="8">
-        <v>0</v>
-      </c>
-      <c r="F18" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
